--- a/data_analysis/Fig_16_USS_BillsGraph_monitoring_2014-2022_autograb.xlsx
+++ b/data_analysis/Fig_16_USS_BillsGraph_monitoring_2014-2022_autograb.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kapt8/Documents/00_UCU_USS_JNC/USS_Valuations2014-2023_paper/Discussion_paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kapt8/Documents/00_UCU_USS_JNC/USS_Valuations2014-2023_paper/Discussion_paper/Github_uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6DB461-1E92-9744-A3A2-0F0D32873AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC680E47-9CE8-0D42-8C55-05D75E79C50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="500" windowWidth="28060" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28060" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USS_Mar_2020" sheetId="15" r:id="rId1"/>
@@ -20114,7 +20114,9 @@
   </sheetPr>
   <dimension ref="A1:G1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
